--- a/DemoFramework/src/test/resources/testData/loginData.xlsx
+++ b/DemoFramework/src/test/resources/testData/loginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Demo_Register" sheetId="3" r:id="rId3"/>
     <sheet name="Demo_Login" sheetId="4" r:id="rId4"/>
     <sheet name="Demo_Search" sheetId="5" r:id="rId5"/>
+    <sheet name="Demo_Dropdown" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Username</t>
   </si>
@@ -99,13 +100,28 @@
   </si>
   <si>
     <t>mobile</t>
+  </si>
+  <si>
+    <t>sortBy</t>
+  </si>
+  <si>
+    <t>Name: Z to A</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +149,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,12 +180,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -692,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -712,4 +735,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>